--- a/cleandataQ.xlsx
+++ b/cleandataQ.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCOMP\Dropbox\Work\YoutubeVids\Data\Links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCOMP\Dropbox\Work\YoutubeVids\1.Data\1.GDP_excel\Take1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D22376B-86EA-428B-82A0-F64974FDCD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A0B21-48D3-41FC-B0FC-D83D480BA289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21B202DC-0E21-4E6C-8BD5-15196516FB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="cleandataQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>c_h</t>
   </si>
@@ -767,75 +780,6 @@
   </si>
   <si>
     <t>Q4 2019</t>
-  </si>
-  <si>
-    <t>Q1 2020</t>
-  </si>
-  <si>
-    <t>Q2 2020</t>
-  </si>
-  <si>
-    <t>Q3 2020</t>
-  </si>
-  <si>
-    <t>Q4 2020</t>
-  </si>
-  <si>
-    <t>Q1 2021</t>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q4 2021</t>
-  </si>
-  <si>
-    <t>Q1 2022</t>
-  </si>
-  <si>
-    <t>Q2 2022</t>
-  </si>
-  <si>
-    <t>Q3 2022</t>
-  </si>
-  <si>
-    <t>Q4 2022</t>
-  </si>
-  <si>
-    <t>Q1 2023</t>
-  </si>
-  <si>
-    <t>Q2 2023</t>
-  </si>
-  <si>
-    <t>Q3 2023</t>
-  </si>
-  <si>
-    <t>Q4 2023</t>
-  </si>
-  <si>
-    <t>Q1 2024</t>
-  </si>
-  <si>
-    <t>Q2 2024</t>
-  </si>
-  <si>
-    <t>Q3 2024</t>
-  </si>
-  <si>
-    <t>Q4 2024</t>
-  </si>
-  <si>
-    <t>Q1 2025</t>
-  </si>
-  <si>
-    <t>Q2 2025</t>
-  </si>
-  <si>
-    <t>Q3 2025</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6346BB-3801-41EC-B383-CE7CEA3D2C3C}">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238:XFD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12840,1085 +12784,349 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>249</v>
-      </c>
-      <c r="B238" s="1">
-        <v>1242827</v>
-      </c>
-      <c r="C238" s="1">
-        <v>34952</v>
-      </c>
-      <c r="D238" s="1">
-        <v>466398</v>
-      </c>
-      <c r="E238" s="1">
-        <v>409154</v>
-      </c>
-      <c r="F238" s="1">
-        <v>2173</v>
-      </c>
-      <c r="G238" s="1">
-        <v>83930</v>
-      </c>
-      <c r="H238" s="1">
-        <v>16961</v>
-      </c>
-      <c r="I238" s="1">
-        <v>693669</v>
-      </c>
-      <c r="J238" s="1">
-        <v>735369</v>
-      </c>
-      <c r="K238" s="1">
-        <v>2211376</v>
-      </c>
-      <c r="L238" s="1">
-        <f t="shared" si="9"/>
-        <v>1277779</v>
-      </c>
-      <c r="M238" s="1">
-        <f t="shared" si="10"/>
-        <v>428288</v>
-      </c>
-      <c r="N238" s="1">
-        <f t="shared" si="11"/>
-        <v>550328</v>
-      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>250</v>
-      </c>
-      <c r="B239" s="1">
-        <v>1064743</v>
-      </c>
-      <c r="C239" s="1">
-        <v>32344</v>
-      </c>
-      <c r="D239" s="1">
-        <v>449603</v>
-      </c>
-      <c r="E239" s="1">
-        <v>345757</v>
-      </c>
-      <c r="F239" s="1">
-        <v>2119</v>
-      </c>
-      <c r="G239" s="1">
-        <v>82947</v>
-      </c>
-      <c r="H239" s="1">
-        <v>-24556</v>
-      </c>
-      <c r="I239" s="1">
-        <v>580283</v>
-      </c>
-      <c r="J239" s="1">
-        <v>566685</v>
-      </c>
-      <c r="K239" s="1">
-        <v>1968126</v>
-      </c>
-      <c r="L239" s="1">
-        <f t="shared" si="9"/>
-        <v>1097087</v>
-      </c>
-      <c r="M239" s="1">
-        <f t="shared" si="10"/>
-        <v>323320</v>
-      </c>
-      <c r="N239" s="1">
-        <f t="shared" si="11"/>
-        <v>532550</v>
-      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>251</v>
-      </c>
-      <c r="B240" s="1">
-        <v>1201575</v>
-      </c>
-      <c r="C240" s="1">
-        <v>33684</v>
-      </c>
-      <c r="D240" s="1">
-        <v>474621</v>
-      </c>
-      <c r="E240" s="1">
-        <v>407154</v>
-      </c>
-      <c r="F240" s="1">
-        <v>2292</v>
-      </c>
-      <c r="G240" s="1">
-        <v>85609</v>
-      </c>
-      <c r="H240" s="1">
-        <v>-29778</v>
-      </c>
-      <c r="I240" s="1">
-        <v>657665</v>
-      </c>
-      <c r="J240" s="1">
-        <v>688244</v>
-      </c>
-      <c r="K240" s="1">
-        <v>2146901</v>
-      </c>
-      <c r="L240" s="1">
-        <f t="shared" si="9"/>
-        <v>1235259</v>
-      </c>
-      <c r="M240" s="1">
-        <f t="shared" si="10"/>
-        <v>379668</v>
-      </c>
-      <c r="N240" s="1">
-        <f t="shared" si="11"/>
-        <v>560230</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>252</v>
-      </c>
-      <c r="B241" s="1">
-        <v>1207196</v>
-      </c>
-      <c r="C241" s="1">
-        <v>34748</v>
-      </c>
-      <c r="D241" s="1">
-        <v>481009</v>
-      </c>
-      <c r="E241" s="1">
-        <v>420120</v>
-      </c>
-      <c r="F241" s="1">
-        <v>2375</v>
-      </c>
-      <c r="G241" s="1">
-        <v>85591</v>
-      </c>
-      <c r="H241" s="1">
-        <v>-3438</v>
-      </c>
-      <c r="I241" s="1">
-        <v>665479</v>
-      </c>
-      <c r="J241" s="1">
-        <v>707770</v>
-      </c>
-      <c r="K241" s="1">
-        <v>2187228</v>
-      </c>
-      <c r="L241" s="1">
-        <f t="shared" si="9"/>
-        <v>1241944</v>
-      </c>
-      <c r="M241" s="1">
-        <f t="shared" si="10"/>
-        <v>419057</v>
-      </c>
-      <c r="N241" s="1">
-        <f t="shared" si="11"/>
-        <v>566600</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>253</v>
-      </c>
-      <c r="B242" s="1">
-        <v>1213271</v>
-      </c>
-      <c r="C242" s="1">
-        <v>33736</v>
-      </c>
-      <c r="D242" s="1">
-        <v>487975</v>
-      </c>
-      <c r="E242" s="1">
-        <v>436945</v>
-      </c>
-      <c r="F242" s="1">
-        <v>2416</v>
-      </c>
-      <c r="G242" s="1">
-        <v>86049</v>
-      </c>
-      <c r="H242" s="1">
-        <v>2220</v>
-      </c>
-      <c r="I242" s="1">
-        <v>683414</v>
-      </c>
-      <c r="J242" s="1">
-        <v>727187</v>
-      </c>
-      <c r="K242" s="1">
-        <v>2224489</v>
-      </c>
-      <c r="L242" s="1">
-        <f t="shared" si="9"/>
-        <v>1247007</v>
-      </c>
-      <c r="M242" s="1">
-        <f t="shared" si="10"/>
-        <v>441581</v>
-      </c>
-      <c r="N242" s="1">
-        <f t="shared" si="11"/>
-        <v>574024</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>254</v>
-      </c>
-      <c r="B243" s="1">
-        <v>1212792</v>
-      </c>
-      <c r="C243" s="1">
-        <v>33536</v>
-      </c>
-      <c r="D243" s="1">
-        <v>493539</v>
-      </c>
-      <c r="E243" s="1">
-        <v>446250</v>
-      </c>
-      <c r="F243" s="1">
-        <v>2478</v>
-      </c>
-      <c r="G243" s="1">
-        <v>84646</v>
-      </c>
-      <c r="H243" s="1">
-        <v>7187</v>
-      </c>
-      <c r="I243" s="1">
-        <v>660311</v>
-      </c>
-      <c r="J243" s="1">
-        <v>724786</v>
-      </c>
-      <c r="K243" s="1">
-        <v>2221882</v>
-      </c>
-      <c r="L243" s="1">
-        <f t="shared" si="9"/>
-        <v>1246328</v>
-      </c>
-      <c r="M243" s="1">
-        <f t="shared" si="10"/>
-        <v>455915</v>
-      </c>
-      <c r="N243" s="1">
-        <f t="shared" si="11"/>
-        <v>578185</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>255</v>
-      </c>
-      <c r="B244" s="1">
-        <v>1278209</v>
-      </c>
-      <c r="C244" s="1">
-        <v>33992</v>
-      </c>
-      <c r="D244" s="1">
-        <v>495854</v>
-      </c>
-      <c r="E244" s="1">
-        <v>428444</v>
-      </c>
-      <c r="F244" s="1">
-        <v>2395</v>
-      </c>
-      <c r="G244" s="1">
-        <v>84841</v>
-      </c>
-      <c r="H244" s="1">
-        <v>1472</v>
-      </c>
-      <c r="I244" s="1">
-        <v>659260</v>
-      </c>
-      <c r="J244" s="1">
-        <v>717468</v>
-      </c>
-      <c r="K244" s="1">
-        <v>2266642</v>
-      </c>
-      <c r="L244" s="1">
-        <f t="shared" si="9"/>
-        <v>1312201</v>
-      </c>
-      <c r="M244" s="1">
-        <f t="shared" si="10"/>
-        <v>432311</v>
-      </c>
-      <c r="N244" s="1">
-        <f t="shared" si="11"/>
-        <v>580695</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>256</v>
-      </c>
-      <c r="B245" s="1">
-        <v>1290949</v>
-      </c>
-      <c r="C245" s="1">
-        <v>34808</v>
-      </c>
-      <c r="D245" s="1">
-        <v>499514</v>
-      </c>
-      <c r="E245" s="1">
-        <v>435768</v>
-      </c>
-      <c r="F245" s="1">
-        <v>2448</v>
-      </c>
-      <c r="G245" s="1">
-        <v>85495</v>
-      </c>
-      <c r="H245" s="1">
-        <v>29843</v>
-      </c>
-      <c r="I245" s="1">
-        <v>680108</v>
-      </c>
-      <c r="J245" s="1">
-        <v>754130</v>
-      </c>
-      <c r="K245" s="1">
-        <v>2307224</v>
-      </c>
-      <c r="L245" s="1">
-        <f t="shared" si="9"/>
-        <v>1325757</v>
-      </c>
-      <c r="M245" s="1">
-        <f t="shared" si="10"/>
-        <v>468059</v>
-      </c>
-      <c r="N245" s="1">
-        <f t="shared" si="11"/>
-        <v>585009</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>257</v>
-      </c>
-      <c r="B246" s="1">
-        <v>1300850</v>
-      </c>
-      <c r="C246" s="1">
-        <v>35384</v>
-      </c>
-      <c r="D246" s="1">
-        <v>504429</v>
-      </c>
-      <c r="E246" s="1">
-        <v>450092</v>
-      </c>
-      <c r="F246" s="1">
-        <v>2619</v>
-      </c>
-      <c r="G246" s="1">
-        <v>86476</v>
-      </c>
-      <c r="H246" s="1">
-        <v>24931</v>
-      </c>
-      <c r="I246" s="1">
-        <v>678977</v>
-      </c>
-      <c r="J246" s="1">
-        <v>756106</v>
-      </c>
-      <c r="K246" s="1">
-        <v>2331146</v>
-      </c>
-      <c r="L246" s="1">
-        <f t="shared" si="9"/>
-        <v>1336234</v>
-      </c>
-      <c r="M246" s="1">
-        <f t="shared" si="10"/>
-        <v>477642</v>
-      </c>
-      <c r="N246" s="1">
-        <f t="shared" si="11"/>
-        <v>590905</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>258</v>
-      </c>
-      <c r="B247" s="1">
-        <v>1335517</v>
-      </c>
-      <c r="C247" s="1">
-        <v>36176</v>
-      </c>
-      <c r="D247" s="1">
-        <v>504640</v>
-      </c>
-      <c r="E247" s="1">
-        <v>438603</v>
-      </c>
-      <c r="F247" s="1">
-        <v>2759</v>
-      </c>
-      <c r="G247" s="1">
-        <v>85820</v>
-      </c>
-      <c r="H247" s="1">
-        <v>51214</v>
-      </c>
-      <c r="I247" s="1">
-        <v>703564</v>
-      </c>
-      <c r="J247" s="1">
-        <v>803860</v>
-      </c>
-      <c r="K247" s="1">
-        <v>2357666</v>
-      </c>
-      <c r="L247" s="1">
-        <f t="shared" si="9"/>
-        <v>1371693</v>
-      </c>
-      <c r="M247" s="1">
-        <f t="shared" si="10"/>
-        <v>492576</v>
-      </c>
-      <c r="N247" s="1">
-        <f t="shared" si="11"/>
-        <v>590460</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>259</v>
-      </c>
-      <c r="B248" s="1">
-        <v>1344883</v>
-      </c>
-      <c r="C248" s="1">
-        <v>36344</v>
-      </c>
-      <c r="D248" s="1">
-        <v>509818</v>
-      </c>
-      <c r="E248" s="1">
-        <v>432265</v>
-      </c>
-      <c r="F248" s="1">
-        <v>2715</v>
-      </c>
-      <c r="G248" s="1">
-        <v>83436</v>
-      </c>
-      <c r="H248" s="1">
-        <v>55297</v>
-      </c>
-      <c r="I248" s="1">
-        <v>711468</v>
-      </c>
-      <c r="J248" s="1">
-        <v>803144</v>
-      </c>
-      <c r="K248" s="1">
-        <v>2376734</v>
-      </c>
-      <c r="L248" s="1">
-        <f t="shared" si="9"/>
-        <v>1381227</v>
-      </c>
-      <c r="M248" s="1">
-        <f t="shared" si="10"/>
-        <v>490277</v>
-      </c>
-      <c r="N248" s="1">
-        <f t="shared" si="11"/>
-        <v>593254</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>260</v>
-      </c>
-      <c r="B249" s="1">
-        <v>1351824</v>
-      </c>
-      <c r="C249" s="1">
-        <v>36456</v>
-      </c>
-      <c r="D249" s="1">
-        <v>514489</v>
-      </c>
-      <c r="E249" s="1">
-        <v>426204</v>
-      </c>
-      <c r="F249" s="1">
-        <v>2624</v>
-      </c>
-      <c r="G249" s="1">
-        <v>84602</v>
-      </c>
-      <c r="H249" s="1">
-        <v>28605</v>
-      </c>
-      <c r="I249" s="1">
-        <v>711157</v>
-      </c>
-      <c r="J249" s="1">
-        <v>781112</v>
-      </c>
-      <c r="K249" s="1">
-        <v>2378229</v>
-      </c>
-      <c r="L249" s="1">
-        <f t="shared" si="9"/>
-        <v>1388280</v>
-      </c>
-      <c r="M249" s="1">
-        <f t="shared" si="10"/>
-        <v>457433</v>
-      </c>
-      <c r="N249" s="1">
-        <f t="shared" si="11"/>
-        <v>599091</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>261</v>
-      </c>
-      <c r="B250" s="1">
-        <v>1358421</v>
-      </c>
-      <c r="C250" s="1">
-        <v>37228</v>
-      </c>
-      <c r="D250" s="1">
-        <v>513863</v>
-      </c>
-      <c r="E250" s="1">
-        <v>424159</v>
-      </c>
-      <c r="F250" s="1">
-        <v>2866</v>
-      </c>
-      <c r="G250" s="1">
-        <v>88537</v>
-      </c>
-      <c r="H250" s="1">
-        <v>14168</v>
-      </c>
-      <c r="I250" s="1">
-        <v>736451</v>
-      </c>
-      <c r="J250" s="1">
-        <v>779070</v>
-      </c>
-      <c r="K250" s="1">
-        <v>2403264</v>
-      </c>
-      <c r="L250" s="1">
-        <f t="shared" si="9"/>
-        <v>1395649</v>
-      </c>
-      <c r="M250" s="1">
-        <f t="shared" si="10"/>
-        <v>441193</v>
-      </c>
-      <c r="N250" s="1">
-        <f t="shared" si="11"/>
-        <v>602400</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>262</v>
-      </c>
-      <c r="B251" s="1">
-        <v>1358493</v>
-      </c>
-      <c r="C251" s="1">
-        <v>38008</v>
-      </c>
-      <c r="D251" s="1">
-        <v>519223</v>
-      </c>
-      <c r="E251" s="1">
-        <v>433318</v>
-      </c>
-      <c r="F251" s="1">
-        <v>3025</v>
-      </c>
-      <c r="G251" s="1">
-        <v>89424</v>
-      </c>
-      <c r="H251" s="1">
-        <v>10994</v>
-      </c>
-      <c r="I251" s="1">
-        <v>745559</v>
-      </c>
-      <c r="J251" s="1">
-        <v>799097</v>
-      </c>
-      <c r="K251" s="1">
-        <v>2407099</v>
-      </c>
-      <c r="L251" s="1">
-        <f t="shared" si="9"/>
-        <v>1396501</v>
-      </c>
-      <c r="M251" s="1">
-        <f t="shared" si="10"/>
-        <v>447337</v>
-      </c>
-      <c r="N251" s="1">
-        <f t="shared" si="11"/>
-        <v>608647</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>263</v>
-      </c>
-      <c r="B252" s="1">
-        <v>1361214</v>
-      </c>
-      <c r="C252" s="1">
-        <v>38464</v>
-      </c>
-      <c r="D252" s="1">
-        <v>525519</v>
-      </c>
-      <c r="E252" s="1">
-        <v>428876</v>
-      </c>
-      <c r="F252" s="1">
-        <v>3177</v>
-      </c>
-      <c r="G252" s="1">
-        <v>90504</v>
-      </c>
-      <c r="H252" s="1">
-        <v>10278</v>
-      </c>
-      <c r="I252" s="1">
-        <v>744365</v>
-      </c>
-      <c r="J252" s="1">
-        <v>799568</v>
-      </c>
-      <c r="K252" s="1">
-        <v>2408306</v>
-      </c>
-      <c r="L252" s="1">
-        <f t="shared" si="9"/>
-        <v>1399678</v>
-      </c>
-      <c r="M252" s="1">
-        <f t="shared" si="10"/>
-        <v>442331</v>
-      </c>
-      <c r="N252" s="1">
-        <f t="shared" si="11"/>
-        <v>616023</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>264</v>
-      </c>
-      <c r="B253" s="1">
-        <v>1370827</v>
-      </c>
-      <c r="C253" s="1">
-        <v>38804</v>
-      </c>
-      <c r="D253" s="1">
-        <v>523880</v>
-      </c>
-      <c r="E253" s="1">
-        <v>420062</v>
-      </c>
-      <c r="F253" s="1">
-        <v>3351</v>
-      </c>
-      <c r="G253" s="1">
-        <v>91483</v>
-      </c>
-      <c r="H253" s="1">
-        <v>8208</v>
-      </c>
-      <c r="I253" s="1">
-        <v>754041</v>
-      </c>
-      <c r="J253" s="1">
-        <v>805016</v>
-      </c>
-      <c r="K253" s="1">
-        <v>2409551</v>
-      </c>
-      <c r="L253" s="1">
-        <f t="shared" si="9"/>
-        <v>1409631</v>
-      </c>
-      <c r="M253" s="1">
-        <f t="shared" si="10"/>
-        <v>431621</v>
-      </c>
-      <c r="N253" s="1">
-        <f t="shared" si="11"/>
-        <v>615363</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>265</v>
-      </c>
-      <c r="B254" s="1">
-        <v>1377484</v>
-      </c>
-      <c r="C254" s="1">
-        <v>38828</v>
-      </c>
-      <c r="D254" s="1">
-        <v>531939</v>
-      </c>
-      <c r="E254" s="1">
-        <v>419511</v>
-      </c>
-      <c r="F254" s="1">
-        <v>3487</v>
-      </c>
-      <c r="G254" s="1">
-        <v>93839</v>
-      </c>
-      <c r="H254" s="1">
-        <v>9294</v>
-      </c>
-      <c r="I254" s="1">
-        <v>749930</v>
-      </c>
-      <c r="J254" s="1">
-        <v>800407</v>
-      </c>
-      <c r="K254" s="1">
-        <v>2427108</v>
-      </c>
-      <c r="L254" s="1">
-        <f t="shared" si="9"/>
-        <v>1416312</v>
-      </c>
-      <c r="M254" s="1">
-        <f t="shared" si="10"/>
-        <v>432292</v>
-      </c>
-      <c r="N254" s="1">
-        <f t="shared" si="11"/>
-        <v>625778</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>266</v>
-      </c>
-      <c r="B255" s="1">
-        <v>1382672</v>
-      </c>
-      <c r="C255" s="1">
-        <v>38884</v>
-      </c>
-      <c r="D255" s="1">
-        <v>537919</v>
-      </c>
-      <c r="E255" s="1">
-        <v>425004</v>
-      </c>
-      <c r="F255" s="1">
-        <v>3563</v>
-      </c>
-      <c r="G255" s="1">
-        <v>95054</v>
-      </c>
-      <c r="H255" s="1">
-        <v>15824</v>
-      </c>
-      <c r="I255" s="1">
-        <v>748009</v>
-      </c>
-      <c r="J255" s="1">
-        <v>804487</v>
-      </c>
-      <c r="K255" s="1">
-        <v>2446913</v>
-      </c>
-      <c r="L255" s="1">
-        <f t="shared" si="9"/>
-        <v>1421556</v>
-      </c>
-      <c r="M255" s="1">
-        <f t="shared" si="10"/>
-        <v>444391</v>
-      </c>
-      <c r="N255" s="1">
-        <f t="shared" si="11"/>
-        <v>632973</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>267</v>
-      </c>
-      <c r="B256" s="1">
-        <v>1398538</v>
-      </c>
-      <c r="C256" s="1">
-        <v>39060</v>
-      </c>
-      <c r="D256" s="1">
-        <v>544667</v>
-      </c>
-      <c r="E256" s="1">
-        <v>421391</v>
-      </c>
-      <c r="F256" s="1">
-        <v>3664</v>
-      </c>
-      <c r="G256" s="1">
-        <v>95578</v>
-      </c>
-      <c r="H256" s="1">
-        <v>12432</v>
-      </c>
-      <c r="I256" s="1">
-        <v>746819</v>
-      </c>
-      <c r="J256" s="1">
-        <v>799728</v>
-      </c>
-      <c r="K256" s="1">
-        <v>2466957</v>
-      </c>
-      <c r="L256" s="1">
-        <f t="shared" si="9"/>
-        <v>1437598</v>
-      </c>
-      <c r="M256" s="1">
-        <f t="shared" si="10"/>
-        <v>437487</v>
-      </c>
-      <c r="N256" s="1">
-        <f t="shared" si="11"/>
-        <v>640245</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>268</v>
-      </c>
-      <c r="B257" s="1">
-        <v>1407635</v>
-      </c>
-      <c r="C257" s="1">
-        <v>39260</v>
-      </c>
-      <c r="D257" s="1">
-        <v>547847</v>
-      </c>
-      <c r="E257" s="1">
-        <v>432232</v>
-      </c>
-      <c r="F257" s="1">
-        <v>3694</v>
-      </c>
-      <c r="G257" s="1">
-        <v>97431</v>
-      </c>
-      <c r="H257" s="1">
-        <v>-11408</v>
-      </c>
-      <c r="I257" s="1">
-        <v>763541</v>
-      </c>
-      <c r="J257" s="1">
-        <v>800585</v>
-      </c>
-      <c r="K257" s="1">
-        <v>2484261</v>
-      </c>
-      <c r="L257" s="1">
-        <f t="shared" si="9"/>
-        <v>1446895</v>
-      </c>
-      <c r="M257" s="1">
-        <f t="shared" si="10"/>
-        <v>424518</v>
-      </c>
-      <c r="N257" s="1">
-        <f t="shared" si="11"/>
-        <v>645278</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>269</v>
-      </c>
-      <c r="B258" s="1">
-        <v>1410604</v>
-      </c>
-      <c r="C258" s="1">
-        <v>39412</v>
-      </c>
-      <c r="D258" s="1">
-        <v>548486</v>
-      </c>
-      <c r="E258" s="1">
-        <v>426699</v>
-      </c>
-      <c r="F258" s="1">
-        <v>3485</v>
-      </c>
-      <c r="G258" s="1">
-        <v>96230</v>
-      </c>
-      <c r="H258" s="1">
-        <v>5278</v>
-      </c>
-      <c r="I258" s="1">
-        <v>768831</v>
-      </c>
-      <c r="J258" s="1">
-        <v>806304</v>
-      </c>
-      <c r="K258" s="1">
-        <v>2497674</v>
-      </c>
-      <c r="L258" s="1">
-        <f t="shared" si="9"/>
-        <v>1450016</v>
-      </c>
-      <c r="M258" s="1">
-        <f t="shared" si="10"/>
-        <v>435462</v>
-      </c>
-      <c r="N258" s="1">
-        <f t="shared" si="11"/>
-        <v>644716</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>270</v>
-      </c>
-      <c r="B259" s="1">
-        <v>1425080</v>
-      </c>
-      <c r="C259" s="1">
-        <v>39532</v>
-      </c>
-      <c r="D259" s="1">
-        <v>554892</v>
-      </c>
-      <c r="E259" s="1">
-        <v>426355</v>
-      </c>
-      <c r="F259" s="1">
-        <v>3660</v>
-      </c>
-      <c r="G259" s="1">
-        <v>97687</v>
-      </c>
-      <c r="H259" s="1">
-        <v>27643</v>
-      </c>
-      <c r="I259" s="1">
-        <v>715258</v>
-      </c>
-      <c r="J259" s="1">
-        <v>805427</v>
-      </c>
-      <c r="K259" s="1">
-        <v>2486045</v>
-      </c>
-      <c r="L259" s="1">
-        <f t="shared" ref="L259:L260" si="12">B259+C259</f>
-        <v>1464612</v>
-      </c>
-      <c r="M259" s="1">
-        <f t="shared" ref="M259:M260" si="13">E259+F259+H259</f>
-        <v>457658</v>
-      </c>
-      <c r="N259" s="1">
-        <f t="shared" ref="N259:N260" si="14">D259+G259</f>
-        <v>652579</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>271</v>
-      </c>
-      <c r="B260" s="1">
-        <v>1423546</v>
-      </c>
-      <c r="C260" s="1">
-        <v>39764</v>
-      </c>
-      <c r="D260" s="1">
-        <v>552455</v>
-      </c>
-      <c r="E260" s="1">
-        <v>426531</v>
-      </c>
-      <c r="F260" s="1">
-        <v>3750</v>
-      </c>
-      <c r="G260" s="1">
-        <v>100550</v>
-      </c>
-      <c r="H260" s="1">
-        <v>23692</v>
-      </c>
-      <c r="I260" s="1">
-        <v>716551</v>
-      </c>
-      <c r="J260" s="1">
-        <v>787456</v>
-      </c>
-      <c r="K260" s="1">
-        <v>2502070</v>
-      </c>
-      <c r="L260" s="1">
-        <f t="shared" si="12"/>
-        <v>1463310</v>
-      </c>
-      <c r="M260" s="1">
-        <f t="shared" si="13"/>
-        <v>453973</v>
-      </c>
-      <c r="N260" s="1">
-        <f t="shared" si="14"/>
-        <v>653005</v>
-      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+    </row>
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+    </row>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+    </row>
+    <row r="257" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+    </row>
+    <row r="258" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+    </row>
+    <row r="259" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+    </row>
+    <row r="260" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
